--- a/activities/zhilei_config/xdays.xlsx
+++ b/activities/zhilei_config/xdays.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TU\FishonTestProjectRepository\activities\zhilei_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF1E69E-3E5C-421A-AD4B-17EAE419364B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E503C90-67EB-4E84-955B-CC82A81977AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="36285" windowHeight="20325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10935" yWindow="6255" windowWidth="19815" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>xdays_type</t>
   </si>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>最高单鱼得分</t>
-  </si>
-  <si>
-    <t>典藏奇珍超奇珍</t>
-  </si>
-  <si>
-    <t>500302,500301</t>
   </si>
   <si>
     <t>groupId</t>
@@ -44,10 +38,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>rank_timer</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>xdays_id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -61,14 +51,15 @@
   </si>
   <si>
     <t>跨渔场累计积分</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高单鱼得分</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500301,500302</t>
+  </si>
+  <si>
+    <t>钓鱼王冠军赛</t>
+  </si>
+  <si>
+    <t>典藏奇珍超奇珍</t>
+  </si>
+  <si>
+    <t>500301,500302,500303,500304</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -130,22 +121,27 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -181,8 +177,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -208,26 +207,90 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{6A2D9A6C-5076-4351-922E-72090D465CCD}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -441,224 +504,205 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:H15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" customWidth="1"/>
-    <col min="10" max="10" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:9" ht="14.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" ht="17.25" thickBot="1">
+    <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>11</v>
+      <c r="B2" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="1">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D2" s="10">
-        <v>5200201</v>
-      </c>
-      <c r="E2" s="2">
-        <v>151101</v>
+        <v>5200601</v>
+      </c>
+      <c r="E2" s="11">
+        <v>151301</v>
       </c>
       <c r="F2" s="2">
-        <v>151201</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>45772</v>
-      </c>
-      <c r="I2" s="4">
-        <v>3</v>
+        <v>500304</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45807</v>
+      </c>
+      <c r="H2" s="4">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>2</v>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D3" s="10">
-        <v>5200202</v>
-      </c>
-      <c r="E3" s="2">
-        <v>151102</v>
+        <v>5200602</v>
+      </c>
+      <c r="E3" s="11">
+        <v>151302</v>
       </c>
       <c r="F3" s="2">
-        <v>151202</v>
-      </c>
-      <c r="G3" s="2">
-        <v>500302</v>
-      </c>
-      <c r="H3" s="5">
-        <v>45775</v>
-      </c>
-      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>45814</v>
+      </c>
+      <c r="H3" s="4">
         <v>3</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
+    <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>3</v>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D4" s="10">
-        <v>5200203</v>
-      </c>
-      <c r="E4" s="2">
-        <v>151103</v>
-      </c>
-      <c r="F4" s="2">
-        <v>151203</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="5">
-        <v>45778</v>
-      </c>
-      <c r="I4" s="4">
-        <v>5</v>
+        <v>5200603</v>
+      </c>
+      <c r="E4" s="11">
+        <v>151303</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45817</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D5" s="10">
-        <v>5200204</v>
-      </c>
-      <c r="E5" s="2">
-        <v>151104</v>
+        <v>5200604</v>
+      </c>
+      <c r="E5" s="11">
+        <v>151304</v>
       </c>
       <c r="F5" s="2">
-        <v>151204</v>
-      </c>
-      <c r="G5" s="2">
-        <v>500301</v>
-      </c>
-      <c r="H5" s="5">
-        <v>45783</v>
-      </c>
-      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>45821</v>
+      </c>
+      <c r="H5" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.25" thickBot="1">
+    <row r="6" spans="1:9" ht="15" thickBot="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>12</v>
+      <c r="B6" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D6" s="10">
-        <v>5200205</v>
-      </c>
-      <c r="E6" s="2">
-        <v>151105</v>
-      </c>
-      <c r="F6" s="2">
-        <v>151205</v>
-      </c>
-      <c r="G6" s="6" t="s">
+        <v>5200605</v>
+      </c>
+      <c r="E6" s="11">
+        <v>151305</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>45824</v>
+      </c>
+      <c r="H6" s="4">
         <v>4</v>
       </c>
-      <c r="H6" s="5">
-        <v>45793</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>26</v>
-      </c>
-      <c r="D7" s="10">
-        <v>5200206</v>
-      </c>
-      <c r="E7" s="2">
-        <v>151106</v>
-      </c>
-      <c r="F7" s="2">
-        <v>151206</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="5">
-        <v>45793</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
+    <row r="7" spans="1:9" ht="15" thickBot="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="C8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D6">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D6">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D6">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
